--- a/Excel-XLSX/UN-GUY.xlsx
+++ b/Excel-XLSX/UN-GUY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,145 @@
     <t>1</t>
   </si>
   <si>
-    <t>51kHfZ</t>
+    <t>b1pjRE</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>GUY</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>KHM</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Dem. Rep. of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>1972</t>
@@ -102,25 +240,166 @@
     <t>CUB</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>GUY</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>5892</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>4200</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>36400</t>
+  </si>
+  <si>
+    <t>22000</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>23307</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>25800</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>19635</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
   <si>
     <t>262</t>
@@ -132,253 +411,7 @@
     <t>UKN</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Dem. Rep. of the Congo</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>RWA</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
-    <t>VEN</t>
-  </si>
-  <si>
-    <t>36400</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>22000</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CMR</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>23307</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>5892</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>HAI</t>
-  </si>
-  <si>
-    <t>HTI</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>25800</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>AFG</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>19388</t>
+    <t>UNK</t>
   </si>
 </sst>
 </file>
@@ -763,7 +796,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -886,25 +919,25 @@
         <v>32</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -918,22 +951,22 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -948,31 +981,31 @@
         <v>30</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -986,23 +1019,23 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
       </c>
@@ -1016,31 +1049,31 @@
         <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -1054,22 +1087,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -1084,31 +1117,31 @@
         <v>30</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>32</v>
+      <c r="V5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1122,22 +1155,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1152,31 +1185,31 @@
         <v>30</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>32</v>
+      <c r="V6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1190,22 +1223,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1220,31 +1253,31 @@
         <v>30</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -1258,22 +1291,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1288,31 +1321,31 @@
         <v>30</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -1326,22 +1359,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1359,28 +1392,28 @@
         <v>47</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>32</v>
+      <c r="V9" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1394,22 +1427,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1424,31 +1457,31 @@
         <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>32</v>
+      <c r="V10" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1462,22 +1495,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1495,28 +1528,28 @@
         <v>47</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>32</v>
+      <c r="V11" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1530,22 +1563,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -1560,31 +1593,31 @@
         <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>32</v>
+      <c r="V12" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1598,22 +1631,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -1631,28 +1664,28 @@
         <v>47</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>32</v>
+      <c r="V13" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -1666,22 +1699,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -1696,31 +1729,31 @@
         <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>32</v>
+      <c r="V14" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -1734,22 +1767,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -1767,28 +1800,28 @@
         <v>47</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>32</v>
+      <c r="V15" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -1808,16 +1841,16 @@
         <v>66</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -1832,31 +1865,31 @@
         <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="2" t="s">
-        <v>32</v>
+      <c r="V16" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -1873,19 +1906,19 @@
         <v>67</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -1903,28 +1936,28 @@
         <v>47</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>32</v>
+      <c r="V17" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -1938,22 +1971,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -1968,31 +2001,31 @@
         <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>32</v>
+      <c r="V18" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -2006,22 +2039,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2036,31 +2069,31 @@
         <v>30</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>32</v>
+      <c r="V19" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -2074,22 +2107,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2104,31 +2137,31 @@
         <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>32</v>
+      <c r="V20" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -2142,22 +2175,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2172,31 +2205,31 @@
         <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>32</v>
+      <c r="V21" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -2210,22 +2243,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2240,31 +2273,31 @@
         <v>30</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>32</v>
+      <c r="V22" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -2278,22 +2311,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2308,31 +2341,31 @@
         <v>30</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2346,22 +2379,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -2376,31 +2409,31 @@
         <v>30</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -2414,61 +2447,61 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="O25" s="2" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -2482,22 +2515,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -2512,31 +2545,31 @@
         <v>30</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>87</v>
+        <v>31</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
@@ -2550,22 +2583,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -2580,31 +2613,31 @@
         <v>30</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -2618,22 +2651,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -2648,31 +2681,31 @@
         <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="2" t="s">
-        <v>32</v>
+      <c r="V28" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -2686,22 +2719,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -2716,31 +2749,31 @@
         <v>30</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -2754,22 +2787,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -2784,31 +2817,31 @@
         <v>30</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U30" s="2" t="s">
-        <v>97</v>
+        <v>31</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -2822,22 +2855,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -2855,28 +2888,28 @@
         <v>32</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="2" t="s">
-        <v>32</v>
+      <c r="V31" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2923,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -2920,31 +2953,31 @@
         <v>30</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="2" t="s">
-        <v>32</v>
+      <c r="V32" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -2958,22 +2991,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -2991,28 +3024,28 @@
         <v>32</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="2" t="s">
-        <v>104</v>
+      <c r="V33" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -3026,22 +3059,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3059,28 +3092,28 @@
         <v>32</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="2" t="s">
-        <v>32</v>
+      <c r="V34" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -3094,22 +3127,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="H35" s="1" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3127,28 +3160,28 @@
         <v>32</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U35" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -3165,19 +3198,19 @@
         <v>112</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3195,28 +3228,28 @@
         <v>32</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="2" t="s">
-        <v>32</v>
+      <c r="V36" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -3230,22 +3263,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3260,31 +3293,31 @@
         <v>30</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="2" t="s">
-        <v>32</v>
+      <c r="V37" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -3298,22 +3331,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3331,28 +3364,28 @@
         <v>32</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>32</v>
+      <c r="V38" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -3366,22 +3399,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3399,28 +3432,572 @@
         <v>32</v>
       </c>
       <c r="O39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U39" s="2" t="s">
+      <c r="O40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U42" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="V39" s="2" t="s">
-        <v>32</v>
+      <c r="V42" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-GUY.xlsx
+++ b/Excel-XLSX/UN-GUY.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>b1pjRE</t>
+    <t>3noC3K</t>
   </si>
   <si>
     <t>2022</t>
@@ -123,6 +123,9 @@
     <t>2023</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -159,210 +162,204 @@
     <t>6</t>
   </si>
   <si>
-    <t>7</t>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Dem. Rep. of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Dem. Rep. of the Congo</t>
-  </si>
-  <si>
-    <t>COD</t>
+    <t>2011</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>2011</t>
+    <t>2012</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>2012</t>
+    <t>2013</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>2013</t>
+    <t>2014</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>2014</t>
+    <t>2015</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>2015</t>
+    <t>2016</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>2016</t>
+    <t>2017</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>2017</t>
+    <t>2018</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>2018</t>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>CUB</t>
-  </si>
-  <si>
-    <t>50</t>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>57</t>
+    <t>67</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>67</t>
+    <t>40</t>
+  </si>
+  <si>
+    <t>78</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>78</t>
+    <t>128</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>128</t>
+    <t>37</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>90</t>
+    <t>5892</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>5892</t>
+    <t>4200</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>4200</t>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>HTI</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>HAI</t>
-  </si>
-  <si>
-    <t>HTI</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>RWA</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
@@ -381,22 +378,25 @@
     <t>22000</t>
   </si>
   <si>
+    <t>23307</t>
+  </si>
+  <si>
     <t>42</t>
   </si>
   <si>
-    <t>23307</t>
+    <t>25800</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>25800</t>
+    <t>19635</t>
   </si>
   <si>
     <t>44</t>
   </si>
   <si>
-    <t>19635</t>
+    <t>21668</t>
   </si>
   <si>
     <t>45</t>
@@ -796,7 +796,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -981,7 +981,7 @@
         <v>30</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>31</v>
@@ -1019,22 +1019,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -1087,22 +1087,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -1140,8 +1140,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -1158,19 +1158,19 @@
         <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1208,8 +1208,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -1223,22 +1223,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1291,22 +1291,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1321,10 +1321,10 @@
         <v>30</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>31</v>
@@ -1359,22 +1359,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1389,7 +1389,7 @@
         <v>30</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>31</v>
@@ -1412,8 +1412,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -1427,22 +1427,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1457,7 +1457,7 @@
         <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>31</v>
@@ -1480,8 +1480,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -1495,22 +1495,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1525,7 +1525,7 @@
         <v>30</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>31</v>
@@ -1548,8 +1548,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -1563,22 +1563,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -1593,7 +1593,7 @@
         <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>31</v>
@@ -1616,8 +1616,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -1631,22 +1631,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -1661,7 +1661,7 @@
         <v>30</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>31</v>
@@ -1684,8 +1684,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -1699,22 +1699,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -1729,7 +1729,7 @@
         <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>31</v>
@@ -1752,8 +1752,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -1767,22 +1767,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -1797,7 +1797,7 @@
         <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>31</v>
@@ -1820,8 +1820,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -1835,22 +1835,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -1865,7 +1865,7 @@
         <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>31</v>
@@ -1888,8 +1888,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -1903,22 +1903,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -1933,7 +1933,7 @@
         <v>30</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>31</v>
@@ -1956,8 +1956,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -1971,22 +1971,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -2001,7 +2001,7 @@
         <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>31</v>
@@ -2024,8 +2024,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -2039,22 +2039,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2069,10 +2069,10 @@
         <v>30</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>31</v>
@@ -2092,8 +2092,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -2110,19 +2110,19 @@
         <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2137,10 +2137,10 @@
         <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>31</v>
@@ -2160,8 +2160,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -2175,22 +2175,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2205,10 +2205,10 @@
         <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>31</v>
@@ -2228,8 +2228,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
+      <c r="V21" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -2243,22 +2243,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2273,10 +2273,10 @@
         <v>30</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>31</v>
@@ -2296,8 +2296,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -2311,22 +2311,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2341,10 +2341,10 @@
         <v>30</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>31</v>
@@ -2364,8 +2364,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -2379,22 +2379,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -2409,10 +2409,10 @@
         <v>30</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>31</v>
@@ -2447,22 +2447,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2477,10 +2477,10 @@
         <v>30</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>31</v>
@@ -2501,7 +2501,7 @@
         <v>33</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
@@ -2515,10 +2515,10 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>28</v>
@@ -2569,7 +2569,7 @@
         <v>33</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
@@ -2583,22 +2583,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -2616,7 +2616,7 @@
         <v>31</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>31</v>
@@ -2637,7 +2637,7 @@
         <v>33</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -2651,23 +2651,23 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
       </c>
@@ -2681,10 +2681,10 @@
         <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>31</v>
@@ -2704,8 +2704,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -2722,20 +2722,20 @@
         <v>100</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2749,10 +2749,10 @@
         <v>30</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>31</v>
@@ -2790,19 +2790,19 @@
         <v>101</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -2817,10 +2817,10 @@
         <v>30</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>31</v>
@@ -2855,22 +2855,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -2908,8 +2908,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>33</v>
+      <c r="V31" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -2926,19 +2926,19 @@
         <v>106</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -2976,8 +2976,8 @@
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>33</v>
+      <c r="V32" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -2991,22 +2991,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3044,8 +3044,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
+      <c r="V33" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34">
@@ -3062,19 +3062,19 @@
         <v>107</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3112,8 +3112,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -3127,22 +3127,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="I35" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3180,8 +3180,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36">
@@ -3198,19 +3198,19 @@
         <v>112</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="I36" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3248,8 +3248,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -3266,19 +3266,19 @@
         <v>113</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="I37" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3316,8 +3316,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -3331,22 +3331,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="I38" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3384,8 +3384,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39">
@@ -3399,22 +3399,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="I39" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3452,8 +3452,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -3467,22 +3467,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -3497,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>31</v>
@@ -3517,11 +3517,11 @@
       <c r="T40" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V40" s="1" t="s">
-        <v>33</v>
+      <c r="U40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -3535,22 +3535,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="I41" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -3588,8 +3588,8 @@
       <c r="U41" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42">
@@ -3603,22 +3603,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="I42" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -3656,8 +3656,8 @@
       <c r="U42" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43">
@@ -3674,19 +3674,19 @@
         <v>121</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="I43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -3724,8 +3724,8 @@
       <c r="U43" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44">
@@ -3742,19 +3742,19 @@
         <v>123</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="I44" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -3772,7 +3772,7 @@
         <v>31</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>31</v>
@@ -3792,8 +3792,8 @@
       <c r="U44" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45">
@@ -3810,19 +3810,19 @@
         <v>125</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="I45" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -3840,7 +3840,7 @@
         <v>31</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>31</v>
@@ -3878,19 +3878,19 @@
         <v>127</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -3905,10 +3905,10 @@
         <v>30</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>31</v>
@@ -3925,79 +3925,11 @@
       <c r="T46" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U46" s="2" t="s">
-        <v>126</v>
+      <c r="U46" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="V46" s="2" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-GUY.xlsx
+++ b/Excel-XLSX/UN-GUY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,328 +90,340 @@
     <t>3noC3K</t>
   </si>
   <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>GUY</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Dem. Rep. of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>36400</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>22000</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>23307</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>5892</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>25800</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>2022</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Afghanistan</t>
   </si>
   <si>
     <t>AFG</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>GUY</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>KHM</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>4200</t>
+  </si>
+  <si>
+    <t>19635</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>CAM</t>
-  </si>
-  <si>
-    <t>KHM</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CMR</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Dem. Rep. of the Congo</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>CUB</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>5892</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>4200</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>HAI</t>
-  </si>
-  <si>
-    <t>HTI</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>RWA</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
-    <t>VEN</t>
-  </si>
-  <si>
-    <t>36400</t>
-  </si>
-  <si>
-    <t>22000</t>
-  </si>
-  <si>
-    <t>23307</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>25800</t>
-  </si>
-  <si>
     <t>43</t>
   </si>
   <si>
-    <t>19635</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>21668</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
   </si>
 </sst>
 </file>
@@ -796,7 +808,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -919,25 +931,25 @@
         <v>32</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -951,22 +963,22 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -981,31 +993,31 @@
         <v>30</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1019,22 +1031,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -1049,31 +1061,31 @@
         <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1087,22 +1099,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -1117,31 +1129,31 @@
         <v>30</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1155,22 +1167,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1185,31 +1197,31 @@
         <v>30</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1223,61 +1235,61 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1291,22 +1303,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1321,31 +1333,31 @@
         <v>30</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1359,22 +1371,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1389,31 +1401,31 @@
         <v>30</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1427,22 +1439,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1457,31 +1469,31 @@
         <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1495,22 +1507,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1525,31 +1537,31 @@
         <v>30</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -1563,22 +1575,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -1593,31 +1605,31 @@
         <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -1631,22 +1643,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -1661,31 +1673,31 @@
         <v>30</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -1699,22 +1711,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -1729,31 +1741,31 @@
         <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -1767,22 +1779,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -1797,31 +1809,31 @@
         <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -1841,16 +1853,16 @@
         <v>67</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -1865,31 +1877,31 @@
         <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -1906,19 +1918,19 @@
         <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -1933,31 +1945,31 @@
         <v>30</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -1971,22 +1983,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -2001,31 +2013,31 @@
         <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2039,22 +2051,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2069,31 +2081,31 @@
         <v>30</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -2107,22 +2119,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2137,31 +2149,31 @@
         <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -2175,22 +2187,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2205,31 +2217,31 @@
         <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -2243,22 +2255,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2273,31 +2285,31 @@
         <v>30</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -2311,22 +2323,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2341,31 +2353,31 @@
         <v>30</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -2379,22 +2391,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -2409,31 +2421,31 @@
         <v>30</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -2447,22 +2459,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2477,31 +2489,31 @@
         <v>30</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -2515,22 +2527,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -2545,31 +2557,31 @@
         <v>30</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -2583,22 +2595,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -2613,31 +2625,31 @@
         <v>30</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -2651,61 +2663,61 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="P28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -2719,22 +2731,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -2749,31 +2761,31 @@
         <v>30</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -2787,22 +2799,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -2820,28 +2832,28 @@
         <v>32</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -2855,22 +2867,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -2888,28 +2900,28 @@
         <v>32</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -2923,61 +2935,61 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="O32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="P32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -2991,22 +3003,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3024,28 +3036,28 @@
         <v>32</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34">
@@ -3059,19 +3071,19 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>110</v>
@@ -3092,28 +3104,28 @@
         <v>32</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -3130,19 +3142,19 @@
         <v>111</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3160,28 +3172,28 @@
         <v>32</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -3195,22 +3207,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3228,28 +3240,28 @@
         <v>32</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -3263,22 +3275,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3296,28 +3308,28 @@
         <v>32</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -3331,22 +3343,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3364,28 +3376,28 @@
         <v>32</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -3399,22 +3411,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3429,31 +3441,31 @@
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -3467,22 +3479,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -3497,31 +3509,31 @@
         <v>30</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>118</v>
+        <v>32</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41">
@@ -3535,22 +3547,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -3565,31 +3577,31 @@
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U41" s="2" t="s">
-        <v>119</v>
+        <v>32</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -3603,22 +3615,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -3633,31 +3645,31 @@
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -3671,22 +3683,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="I43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -3701,31 +3713,31 @@
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U43" s="2" t="s">
-        <v>122</v>
+        <v>32</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -3739,22 +3751,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -3769,31 +3781,31 @@
         <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U44" s="2" t="s">
-        <v>124</v>
+        <v>32</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -3807,22 +3819,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -3837,31 +3849,31 @@
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U45" s="2" t="s">
-        <v>126</v>
+        <v>32</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -3875,61 +3887,333 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O48" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I46" s="1" t="s">
+      <c r="P48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U50" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V46" s="2" t="s">
-        <v>31</v>
+      <c r="V50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-GUY.xlsx
+++ b/Excel-XLSX/UN-GUY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>3noC3K</t>
+    <t>Viwmd2</t>
   </si>
   <si>
     <t>1972</t>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>49</t>
+  </si>
+  <si>
+    <t>23400</t>
   </si>
 </sst>
 </file>
@@ -4056,7 +4059,7 @@
         <v>48</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>32</v>
@@ -4124,7 +4127,7 @@
         <v>66</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>32</v>
@@ -4192,7 +4195,7 @@
         <v>32</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>32</v>
@@ -4210,7 +4213,7 @@
         <v>32</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="V50" s="2" t="s">
         <v>32</v>
